--- a/src/CoronaDataHelper/CoronaDataHelper/res/coronadata.xlsx
+++ b/src/CoronaDataHelper/CoronaDataHelper/res/coronadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\coronaDataHelper\src\CoronaDataHelper\CoronaDataHelper\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\coronaDataHelper\src\CoronaDataHelper\CoronaDataHelper\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DAAED1-1CCB-4B46-B5E9-C3849DFCA222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE3C2FF-315E-462D-9BD2-06CBDD1D7315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6222,7 +6222,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -6249,6 +6249,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6566,8 +6574,8 @@
   <dimension ref="A1:AA409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T293" sqref="T293"/>
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E288" sqref="E288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9213,7 +9221,7 @@
       </c>
       <c r="S65" s="6"/>
       <c r="T65" s="6">
-        <f t="shared" ref="T8:T71" si="3">E65/E58</f>
+        <f t="shared" ref="T65:T71" si="3">E65/E58</f>
         <v>19.5</v>
       </c>
       <c r="U65" s="6">
@@ -9292,7 +9300,7 @@
         <v>10.125</v>
       </c>
       <c r="S66" s="6">
-        <f t="shared" ref="S65:S128" si="11">D66/D59</f>
+        <f t="shared" ref="S66:S128" si="11">D66/D59</f>
         <v>5.666666666666667</v>
       </c>
       <c r="T66" s="6">
@@ -25153,31 +25161,31 @@
         <v>1.1828737300435415</v>
       </c>
       <c r="U257" s="6">
-        <f t="shared" ref="U257:U302" si="41">F257/F250</f>
+        <f t="shared" ref="U257:U316" si="41">F257/F250</f>
         <v>1.0480222841225626</v>
       </c>
       <c r="V257" s="6">
-        <f t="shared" ref="V257:V302" si="42">G257/G250</f>
+        <f t="shared" ref="V257:V316" si="42">G257/G250</f>
         <v>1.1416584402764067</v>
       </c>
       <c r="W257" s="6">
-        <f t="shared" ref="W257:W302" si="43">H257/H250</f>
+        <f t="shared" ref="W257:W316" si="43">H257/H250</f>
         <v>1.8242268041237113</v>
       </c>
       <c r="X257" s="6">
-        <f t="shared" ref="X257:X302" si="44">I257/I250</f>
+        <f t="shared" ref="X257:X316" si="44">I257/I250</f>
         <v>1.7043010752688172</v>
       </c>
       <c r="Y257" s="6">
-        <f t="shared" ref="Y257:Y302" si="45">J257/J250</f>
+        <f t="shared" ref="Y257:Y316" si="45">J257/J250</f>
         <v>1.7637362637362637</v>
       </c>
       <c r="Z257" s="6">
-        <f t="shared" ref="Z257:Z302" si="46">K257/K250</f>
+        <f t="shared" ref="Z257:Z316" si="46">K257/K250</f>
         <v>1.1106870229007633</v>
       </c>
       <c r="AA257" s="6">
-        <f t="shared" ref="AA257:AA302" si="47">L257/L250</f>
+        <f t="shared" ref="AA257:AA316" si="47">L257/L250</f>
         <v>0.85396726178849081</v>
       </c>
     </row>
@@ -26667,7 +26675,7 @@
         <v>1.122954029289686</v>
       </c>
       <c r="T275" s="6">
-        <f t="shared" ref="T275:T302" si="52">E275/E268</f>
+        <f t="shared" ref="T275:T316" si="52">E275/E268</f>
         <v>1.0163934426229508</v>
       </c>
       <c r="U275" s="6">
@@ -29015,696 +29023,4377 @@
         <f t="shared" si="48"/>
         <v>42669</v>
       </c>
-      <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
-      <c r="D303" s="6"/>
-      <c r="E303" s="6"/>
-      <c r="F303" s="6"/>
-      <c r="G303" s="6"/>
-      <c r="H303" s="6"/>
-      <c r="I303" s="6"/>
-      <c r="J303" s="6"/>
-      <c r="K303" s="6"/>
-      <c r="L303" s="6"/>
+      <c r="B303" s="10">
+        <f t="shared" ref="B303:D303" si="80">SUM(Q289:Q302)/14*B296</f>
+        <v>21122.5151953473</v>
+      </c>
+      <c r="C303" s="10">
+        <f t="shared" si="80"/>
+        <v>15018.709365099869</v>
+      </c>
+      <c r="D303" s="10">
+        <f t="shared" si="80"/>
+        <v>69986.581869270376</v>
+      </c>
+      <c r="E303" s="10">
+        <f>SUM(T289:T302)/14*E296</f>
+        <v>13029.986879732574</v>
+      </c>
+      <c r="F303" s="10">
+        <f t="shared" ref="F303:L303" si="81">SUM(U289:U302)/14*F296</f>
+        <v>30612.018925431803</v>
+      </c>
+      <c r="G303" s="10">
+        <f t="shared" si="81"/>
+        <v>6032.9176404894615</v>
+      </c>
+      <c r="H303" s="10">
+        <f t="shared" si="81"/>
+        <v>26268.330299646212</v>
+      </c>
+      <c r="I303" s="10">
+        <f t="shared" si="81"/>
+        <v>10379.295146123863</v>
+      </c>
+      <c r="J303" s="10">
+        <f t="shared" si="81"/>
+        <v>24824.7051693635</v>
+      </c>
+      <c r="K303" s="10">
+        <f t="shared" si="81"/>
+        <v>1285.9682566452207</v>
+      </c>
+      <c r="L303" s="10">
+        <f t="shared" si="81"/>
+        <v>25342.369164396856</v>
+      </c>
       <c r="M303" s="6"/>
       <c r="N303" s="6"/>
       <c r="O303" s="6"/>
       <c r="P303" s="6"/>
-      <c r="Q303" s="6"/>
+      <c r="Q303" s="6">
+        <f t="shared" ref="Q303:AA316" si="82">B303/B296</f>
+        <v>1.9430149200025113</v>
+      </c>
+      <c r="R303" s="6">
+        <f t="shared" ref="R303:AA316" si="83">C303/C296</f>
+        <v>0.8848588561303169</v>
+      </c>
+      <c r="S303" s="6">
+        <f t="shared" ref="S303:AA316" si="84">D303/D296</f>
+        <v>1.1953505929951045</v>
+      </c>
+      <c r="T303" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7156006424927681</v>
+      </c>
+      <c r="U303" s="6">
+        <f t="shared" si="41"/>
+        <v>1.4956038169548467</v>
+      </c>
+      <c r="V303" s="6">
+        <f t="shared" si="42"/>
+        <v>1.1972450169655608</v>
+      </c>
+      <c r="W303" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2315204078596442</v>
+      </c>
+      <c r="X303" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2736894276750352</v>
+      </c>
+      <c r="Y303" s="6">
+        <f t="shared" si="45"/>
+        <v>1.3365298357576989</v>
+      </c>
+      <c r="Z303" s="6">
+        <f t="shared" si="46"/>
+        <v>0.99456168340697648</v>
+      </c>
+      <c r="AA303" s="6">
+        <f t="shared" si="47"/>
+        <v>1.0910737144012079</v>
+      </c>
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <f t="shared" si="48"/>
         <v>42670</v>
       </c>
-      <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
-      <c r="D304" s="6"/>
-      <c r="E304" s="6"/>
-      <c r="F304" s="6"/>
-      <c r="G304" s="6"/>
-      <c r="H304" s="6"/>
-      <c r="I304" s="6"/>
-      <c r="J304" s="6"/>
-      <c r="K304" s="6"/>
-      <c r="L304" s="6"/>
+      <c r="B304" s="10">
+        <f t="shared" ref="B304:L304" si="85">SUM(Q290:Q303)/14*B297</f>
+        <v>29249.402069185657</v>
+      </c>
+      <c r="C304" s="10">
+        <f t="shared" si="85"/>
+        <v>18185.72538638128</v>
+      </c>
+      <c r="D304" s="10">
+        <f t="shared" si="85"/>
+        <v>75171.853257780997</v>
+      </c>
+      <c r="E304" s="10">
+        <f t="shared" si="85"/>
+        <v>19284.081037735636</v>
+      </c>
+      <c r="F304" s="10">
+        <f t="shared" si="85"/>
+        <v>40386.189210443612</v>
+      </c>
+      <c r="G304" s="10">
+        <f t="shared" si="85"/>
+        <v>6807.006863601222</v>
+      </c>
+      <c r="H304" s="10">
+        <f t="shared" si="85"/>
+        <v>32954.298383098037</v>
+      </c>
+      <c r="I304" s="10">
+        <f t="shared" si="85"/>
+        <v>10906.378567159018</v>
+      </c>
+      <c r="J304" s="10">
+        <f t="shared" si="85"/>
+        <v>20520.550491419239</v>
+      </c>
+      <c r="K304" s="10">
+        <f t="shared" si="85"/>
+        <v>1547.2159705202653</v>
+      </c>
+      <c r="L304" s="10">
+        <f t="shared" si="85"/>
+        <v>28580.101336715732</v>
+      </c>
       <c r="M304" s="6"/>
       <c r="N304" s="6"/>
       <c r="O304" s="6"/>
       <c r="P304" s="6"/>
-      <c r="Q304" s="6"/>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q304" s="6">
+        <f t="shared" si="82"/>
+        <v>1.9244293749053001</v>
+      </c>
+      <c r="R304" s="6">
+        <f t="shared" si="83"/>
+        <v>0.86656463291629082</v>
+      </c>
+      <c r="S304" s="6">
+        <f t="shared" si="84"/>
+        <v>1.1936208399406301</v>
+      </c>
+      <c r="T304" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7085213996399076</v>
+      </c>
+      <c r="U304" s="6">
+        <f t="shared" si="41"/>
+        <v>1.5139522121173943</v>
+      </c>
+      <c r="V304" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2120738717238644</v>
+      </c>
+      <c r="W304" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2348446203431647</v>
+      </c>
+      <c r="X304" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2481550202745499</v>
+      </c>
+      <c r="Y304" s="6">
+        <f t="shared" si="45"/>
+        <v>1.2743309005414667</v>
+      </c>
+      <c r="Z304" s="6">
+        <f t="shared" si="46"/>
+        <v>0.98235934636207323</v>
+      </c>
+      <c r="AA304" s="6">
+        <f t="shared" si="47"/>
+        <v>1.1515876112787384</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <f t="shared" si="48"/>
         <v>42671</v>
       </c>
-      <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
-      <c r="D305" s="6"/>
-      <c r="E305" s="6"/>
-      <c r="F305" s="6"/>
-      <c r="G305" s="6"/>
-      <c r="H305" s="6"/>
-      <c r="I305" s="6"/>
-      <c r="J305" s="6"/>
-      <c r="K305" s="6"/>
-      <c r="L305" s="6"/>
+      <c r="B305" s="10">
+        <f t="shared" ref="B305:L305" si="86">SUM(Q291:Q304)/14*B298</f>
+        <v>30861.059231825548</v>
+      </c>
+      <c r="C305" s="10">
+        <f t="shared" si="86"/>
+        <v>16910.819760721053</v>
+      </c>
+      <c r="D305" s="10">
+        <f t="shared" si="86"/>
+        <v>85809.639448965405</v>
+      </c>
+      <c r="E305" s="10">
+        <f t="shared" si="86"/>
+        <v>19265.607976750405</v>
+      </c>
+      <c r="F305" s="10">
+        <f t="shared" si="86"/>
+        <v>63931.905610140151</v>
+      </c>
+      <c r="G305" s="10">
+        <f t="shared" si="86"/>
+        <v>6635.2743599234527</v>
+      </c>
+      <c r="H305" s="10">
+        <f t="shared" si="86"/>
+        <v>25986.10102917238</v>
+      </c>
+      <c r="I305" s="10">
+        <f t="shared" si="86"/>
+        <v>11427.438640340137</v>
+      </c>
+      <c r="J305" s="10">
+        <f t="shared" si="86"/>
+        <v>18656.175666392515</v>
+      </c>
+      <c r="K305" s="10">
+        <f t="shared" si="86"/>
+        <v>1216.5009551114035</v>
+      </c>
+      <c r="L305" s="10">
+        <f t="shared" si="86"/>
+        <v>29138.304844230519</v>
+      </c>
       <c r="M305" s="6"/>
       <c r="N305" s="6"/>
       <c r="O305" s="6"/>
       <c r="P305" s="6"/>
-      <c r="Q305" s="6"/>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q305" s="6">
+        <f t="shared" si="82"/>
+        <v>1.9194588401433976</v>
+      </c>
+      <c r="R305" s="6">
+        <f t="shared" si="83"/>
+        <v>0.85188755028568097</v>
+      </c>
+      <c r="S305" s="6">
+        <f t="shared" si="84"/>
+        <v>1.1908412591102362</v>
+      </c>
+      <c r="T305" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7137171301147842</v>
+      </c>
+      <c r="U305" s="6">
+        <f t="shared" si="41"/>
+        <v>1.536012339871706</v>
+      </c>
+      <c r="V305" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2128083275312471</v>
+      </c>
+      <c r="W305" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2235662976350117</v>
+      </c>
+      <c r="X305" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2329994217026474</v>
+      </c>
+      <c r="Y305" s="6">
+        <f t="shared" si="45"/>
+        <v>1.2367368688360965</v>
+      </c>
+      <c r="Z305" s="6">
+        <f t="shared" si="46"/>
+        <v>0.96932347020828968</v>
+      </c>
+      <c r="AA305" s="6">
+        <f t="shared" si="47"/>
+        <v>1.172190234300045</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <f t="shared" si="48"/>
         <v>42672</v>
       </c>
-      <c r="T306">
-        <f>SUM(T295:T301)/7</f>
-        <v>1.7524238016083644</v>
-      </c>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
-        <f t="shared" si="48"/>
+      <c r="B306" s="10">
+        <f t="shared" ref="B306:L306" si="87">SUM(Q292:Q305)/14*B299</f>
+        <v>36668.731390998</v>
+      </c>
+      <c r="C306" s="10">
+        <f t="shared" si="87"/>
+        <v>0.82791383605053481</v>
+      </c>
+      <c r="D306" s="10">
+        <f t="shared" si="87"/>
+        <v>102026.93165420269</v>
+      </c>
+      <c r="E306" s="10">
+        <f t="shared" si="87"/>
+        <v>25309.922832610333</v>
+      </c>
+      <c r="F306" s="10">
+        <f t="shared" si="87"/>
+        <v>64102.172689010884</v>
+      </c>
+      <c r="G306" s="10">
+        <f t="shared" si="87"/>
+        <v>7510.2606459362969</v>
+      </c>
+      <c r="H306" s="10">
+        <f t="shared" si="87"/>
+        <v>25328.670042716476</v>
+      </c>
+      <c r="I306" s="10">
+        <f t="shared" si="87"/>
+        <v>12234.012376395794</v>
+      </c>
+      <c r="J306" s="10">
+        <f t="shared" si="87"/>
+        <v>17450.628942757303</v>
+      </c>
+      <c r="K306" s="10">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="L306" s="10">
+        <f t="shared" si="87"/>
+        <v>35505.739978462101</v>
+      </c>
+      <c r="M306" s="6"/>
+      <c r="Q306" s="6">
+        <f t="shared" si="82"/>
+        <v>1.9155164494069896</v>
+      </c>
+      <c r="R306" s="6">
+        <f t="shared" si="83"/>
+        <v>0.82791383605053481</v>
+      </c>
+      <c r="S306" s="6">
+        <f t="shared" si="84"/>
+        <v>1.1956888238957764</v>
+      </c>
+      <c r="T306" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7201252434831</v>
+      </c>
+      <c r="U306" s="6">
+        <f t="shared" si="41"/>
+        <v>1.5250802409833195</v>
+      </c>
+      <c r="V306" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2243659351053631</v>
+      </c>
+      <c r="W306" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2336793162883677</v>
+      </c>
+      <c r="X306" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2254845613939491</v>
+      </c>
+      <c r="Y306" s="6">
+        <f t="shared" si="45"/>
+        <v>1.1985322076069576</v>
+      </c>
+      <c r="Z306" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA306" s="6">
+        <f t="shared" si="47"/>
+        <v>1.1824998327603444</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A307" s="7">
+        <f>A306+1</f>
         <v>42673</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
+      <c r="B307" s="11">
+        <f t="shared" ref="B307:L307" si="88">SUM(Q293:Q306)/14*B300</f>
+        <v>37694.16440121724</v>
+      </c>
+      <c r="C307" s="11">
+        <f t="shared" si="88"/>
+        <v>0.88705053862557293</v>
+      </c>
+      <c r="D307" s="11">
+        <f t="shared" si="88"/>
+        <v>99226.600604185107</v>
+      </c>
+      <c r="E307" s="11">
+        <f t="shared" si="88"/>
+        <v>19273.276818689294</v>
+      </c>
+      <c r="F307" s="11">
+        <f t="shared" si="88"/>
+        <v>70218.549970370179</v>
+      </c>
+      <c r="G307" s="11">
+        <f t="shared" si="88"/>
+        <v>7170.5320438130557</v>
+      </c>
+      <c r="H307" s="11">
+        <f t="shared" si="88"/>
+        <v>28563.560895432922</v>
+      </c>
+      <c r="I307" s="11">
+        <f t="shared" si="88"/>
+        <v>10517.028003703781</v>
+      </c>
+      <c r="J307" s="11">
+        <f t="shared" si="88"/>
+        <v>8363.7469227935671</v>
+      </c>
+      <c r="K307" s="11" t="e">
+        <f t="shared" si="88"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L307" s="11">
+        <f t="shared" si="88"/>
+        <v>32010.695649470861</v>
+      </c>
+      <c r="M307" s="8"/>
+      <c r="N307" s="8"/>
+      <c r="O307" s="8"/>
+      <c r="P307" s="8"/>
+      <c r="Q307" s="8">
+        <f t="shared" si="82"/>
+        <v>1.9192548065792892</v>
+      </c>
+      <c r="R307" s="8">
+        <f t="shared" si="83"/>
+        <v>0.88705053862557293</v>
+      </c>
+      <c r="S307" s="8">
+        <f t="shared" si="84"/>
+        <v>1.1946951527184684</v>
+      </c>
+      <c r="T307" s="8">
+        <f t="shared" si="52"/>
+        <v>1.7245236953014758</v>
+      </c>
+      <c r="U307" s="8">
+        <f t="shared" si="41"/>
+        <v>1.5459149744698644</v>
+      </c>
+      <c r="V307" s="8">
+        <f t="shared" si="42"/>
+        <v>1.2333216449626858</v>
+      </c>
+      <c r="W307" s="8">
+        <f t="shared" si="43"/>
+        <v>1.2412463451865514</v>
+      </c>
+      <c r="X307" s="8">
+        <f t="shared" si="44"/>
+        <v>1.2173895131038062</v>
+      </c>
+      <c r="Y307" s="8">
+        <f t="shared" si="45"/>
+        <v>1.1637327010983118</v>
+      </c>
+      <c r="Z307" s="8" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA307" s="8">
+        <f t="shared" si="47"/>
+        <v>1.1865041569172639</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A308" s="7">
         <f t="shared" si="48"/>
         <v>42674</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B308" s="11">
+        <f t="shared" ref="B308:L308" si="89">SUM(Q294:Q307)/14*B301</f>
+        <v>40844.451394891366</v>
+      </c>
+      <c r="C308" s="11">
+        <f t="shared" si="89"/>
+        <v>49600.064474776496</v>
+      </c>
+      <c r="D308" s="11">
+        <f t="shared" si="89"/>
+        <v>71656.237617758045</v>
+      </c>
+      <c r="E308" s="11">
+        <f t="shared" si="89"/>
+        <v>15052.208295476135</v>
+      </c>
+      <c r="F308" s="11">
+        <f t="shared" si="89"/>
+        <v>81667.144633772812</v>
+      </c>
+      <c r="G308" s="11">
+        <f t="shared" si="89"/>
+        <v>7712.6531505604935</v>
+      </c>
+      <c r="H308" s="11">
+        <f t="shared" si="89"/>
+        <v>24811.512080581419</v>
+      </c>
+      <c r="I308" s="11">
+        <f t="shared" si="89"/>
+        <v>12387.585209384046</v>
+      </c>
+      <c r="J308" s="11">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="K308" s="11" t="e">
+        <f t="shared" si="89"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L308" s="11">
+        <f t="shared" si="89"/>
+        <v>16286.065174510188</v>
+      </c>
+      <c r="M308" s="8"/>
+      <c r="N308" s="8"/>
+      <c r="O308" s="8"/>
+      <c r="P308" s="8"/>
+      <c r="Q308" s="8">
+        <f t="shared" si="82"/>
+        <v>1.920013697874835</v>
+      </c>
+      <c r="R308" s="8">
+        <f t="shared" si="83"/>
+        <v>0.95041129138454239</v>
+      </c>
+      <c r="S308" s="8">
+        <f t="shared" si="84"/>
+        <v>1.2055221671897383</v>
+      </c>
+      <c r="T308" s="8">
+        <f t="shared" si="52"/>
+        <v>1.733127034597137</v>
+      </c>
+      <c r="U308" s="8">
+        <f t="shared" si="41"/>
+        <v>1.5702200467943244</v>
+      </c>
+      <c r="V308" s="8">
+        <f t="shared" si="42"/>
+        <v>1.2457847117687761</v>
+      </c>
+      <c r="W308" s="8">
+        <f t="shared" si="43"/>
+        <v>1.2537398726923406</v>
+      </c>
+      <c r="X308" s="8">
+        <f t="shared" si="44"/>
+        <v>1.2151839522644738</v>
+      </c>
+      <c r="Y308" s="8" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z308" s="8" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA308" s="8">
+        <f t="shared" si="47"/>
+        <v>1.2070010505084257</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <f t="shared" si="48"/>
         <v>42675</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B309" s="10">
+        <f t="shared" ref="B309:L309" si="90">SUM(Q295:Q308)/14*B302</f>
+        <v>32379.944229505385</v>
+      </c>
+      <c r="C309" s="10">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="D309" s="10">
+        <f t="shared" si="90"/>
+        <v>82936.266153250457</v>
+      </c>
+      <c r="E309" s="10">
+        <f t="shared" si="90"/>
+        <v>19756.936004611784</v>
+      </c>
+      <c r="F309" s="10">
+        <f t="shared" si="90"/>
+        <v>41495.405649948952</v>
+      </c>
+      <c r="G309" s="10">
+        <f t="shared" si="90"/>
+        <v>7521.9367506390718</v>
+      </c>
+      <c r="H309" s="10">
+        <f t="shared" si="90"/>
+        <v>26092.920217748604</v>
+      </c>
+      <c r="I309" s="10">
+        <f t="shared" si="90"/>
+        <v>12464.415508861312</v>
+      </c>
+      <c r="J309" s="10" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K309" s="10" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L309" s="10">
+        <f t="shared" si="90"/>
+        <v>19337.840777039397</v>
+      </c>
+      <c r="M309" s="6"/>
+      <c r="Q309" s="6">
+        <f t="shared" si="82"/>
+        <v>1.9039186352387478</v>
+      </c>
+      <c r="R309" s="6" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S309" s="6">
+        <f t="shared" si="84"/>
+        <v>1.2132457489613724</v>
+      </c>
+      <c r="T309" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7316974322562699</v>
+      </c>
+      <c r="U309" s="6">
+        <f t="shared" si="41"/>
+        <v>1.5500132848959305</v>
+      </c>
+      <c r="V309" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2620699246038711</v>
+      </c>
+      <c r="W309" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2490627198539304</v>
+      </c>
+      <c r="X309" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2073242453372057</v>
+      </c>
+      <c r="Y309" s="6" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z309" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA309" s="6">
+        <f t="shared" si="47"/>
+        <v>1.2296732021518122</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <f t="shared" si="48"/>
         <v>42676</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B310" s="10">
+        <f t="shared" ref="B310:L310" si="91">SUM(Q296:Q309)/14*B303</f>
+        <v>40038.250060332917</v>
+      </c>
+      <c r="C310" s="10" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D310" s="10">
+        <f t="shared" si="91"/>
+        <v>83755.804471828305</v>
+      </c>
+      <c r="E310" s="10">
+        <f t="shared" si="91"/>
+        <v>22624.97140694776</v>
+      </c>
+      <c r="F310" s="10">
+        <f t="shared" si="91"/>
+        <v>47433.575229606766</v>
+      </c>
+      <c r="G310" s="10">
+        <f t="shared" si="91"/>
+        <v>7722.2853457269475</v>
+      </c>
+      <c r="H310" s="10">
+        <f t="shared" si="91"/>
+        <v>32629.352539867436</v>
+      </c>
+      <c r="I310" s="10">
+        <f t="shared" si="91"/>
+        <v>12589.987414020712</v>
+      </c>
+      <c r="J310" s="10" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K310" s="10" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L310" s="10">
+        <f t="shared" si="91"/>
+        <v>30083.997677431489</v>
+      </c>
+      <c r="M310" s="6"/>
+      <c r="Q310" s="6">
+        <f t="shared" si="82"/>
+        <v>1.8955247369949686</v>
+      </c>
+      <c r="R310" s="6" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S310" s="6">
+        <f t="shared" si="84"/>
+        <v>1.1967408928225383</v>
+      </c>
+      <c r="T310" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7363771441811391</v>
+      </c>
+      <c r="U310" s="6">
+        <f t="shared" si="41"/>
+        <v>1.5495082289459836</v>
+      </c>
+      <c r="V310" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2800249905451095</v>
+      </c>
+      <c r="W310" s="6">
+        <f t="shared" si="43"/>
+        <v>1.242155560237755</v>
+      </c>
+      <c r="X310" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2129905968347408</v>
+      </c>
+      <c r="Y310" s="6" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z310" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA310" s="6">
+        <f t="shared" si="47"/>
+        <v>1.1871028111963613</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <f t="shared" si="48"/>
         <v>42677</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B311" s="10">
+        <f t="shared" ref="B311:L311" si="92">SUM(Q297:Q310)/14*B304</f>
+        <v>55552.352833951707</v>
+      </c>
+      <c r="C311" s="10" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D311" s="10">
+        <f t="shared" si="92"/>
+        <v>90400.894022000502</v>
+      </c>
+      <c r="E311" s="10">
+        <f t="shared" si="92"/>
+        <v>33837.676872323376</v>
+      </c>
+      <c r="F311" s="10">
+        <f t="shared" si="92"/>
+        <v>62504.302059405258</v>
+      </c>
+      <c r="G311" s="10">
+        <f t="shared" si="92"/>
+        <v>8739.0998608897535</v>
+      </c>
+      <c r="H311" s="10">
+        <f t="shared" si="92"/>
+        <v>40944.585957236857</v>
+      </c>
+      <c r="I311" s="10">
+        <f t="shared" si="92"/>
+        <v>13312.684061347674</v>
+      </c>
+      <c r="J311" s="10" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K311" s="10" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L311" s="10">
+        <f t="shared" si="92"/>
+        <v>31711.340466393118</v>
+      </c>
+      <c r="M311" s="6"/>
+      <c r="Q311" s="6">
+        <f t="shared" si="82"/>
+        <v>1.8992645628293474</v>
+      </c>
+      <c r="R311" s="6" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S311" s="6">
+        <f t="shared" si="84"/>
+        <v>1.2025896675980003</v>
+      </c>
+      <c r="T311" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7546948079148212</v>
+      </c>
+      <c r="U311" s="6">
+        <f t="shared" si="41"/>
+        <v>1.5476652608570962</v>
+      </c>
+      <c r="V311" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2838388495859934</v>
+      </c>
+      <c r="W311" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2424657166494846</v>
+      </c>
+      <c r="X311" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2206328598783887</v>
+      </c>
+      <c r="Y311" s="6" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z311" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA311" s="6">
+        <f t="shared" si="47"/>
+        <v>1.1095601129186623</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <f t="shared" si="48"/>
         <v>42678</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B312" s="10">
+        <f t="shared" ref="B312:L312" si="93">SUM(Q298:Q311)/14*B305</f>
+        <v>58230.411436699062</v>
+      </c>
+      <c r="C312" s="10" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D312" s="10">
+        <f t="shared" si="93"/>
+        <v>104064.77833063852</v>
+      </c>
+      <c r="E312" s="10">
+        <f t="shared" si="93"/>
+        <v>33880.031085042327</v>
+      </c>
+      <c r="F312" s="10">
+        <f t="shared" si="93"/>
+        <v>100620.39270662876</v>
+      </c>
+      <c r="G312" s="10">
+        <f t="shared" si="93"/>
+        <v>8576.0209348145763</v>
+      </c>
+      <c r="H312" s="10">
+        <f t="shared" si="93"/>
+        <v>32081.63114252963</v>
+      </c>
+      <c r="I312" s="10">
+        <f t="shared" si="93"/>
+        <v>13964.111656530611</v>
+      </c>
+      <c r="J312" s="10" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K312" s="10" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L312" s="10">
+        <f t="shared" si="93"/>
+        <v>32743.437016700515</v>
+      </c>
+      <c r="M312" s="6"/>
+      <c r="Q312" s="6">
+        <f t="shared" si="82"/>
+        <v>1.8868571878650491</v>
+      </c>
+      <c r="R312" s="6" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S312" s="6">
+        <f t="shared" si="84"/>
+        <v>1.2127399555446241</v>
+      </c>
+      <c r="T312" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7585757545740834</v>
+      </c>
+      <c r="U312" s="6">
+        <f t="shared" si="41"/>
+        <v>1.5738681922015085</v>
+      </c>
+      <c r="V312" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2924892731810886</v>
+      </c>
+      <c r="W312" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2345688607349874</v>
+      </c>
+      <c r="X312" s="6">
+        <f t="shared" si="44"/>
+        <v>1.221980891434038</v>
+      </c>
+      <c r="Y312" s="6" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z312" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA312" s="6">
+        <f t="shared" si="47"/>
+        <v>1.1237248423249928</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <f t="shared" si="48"/>
         <v>42679</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
+      <c r="B313" s="10">
+        <f t="shared" ref="B313:L313" si="94">SUM(Q299:Q312)/14*B306</f>
+        <v>69346.94882027198</v>
+      </c>
+      <c r="C313" s="10" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D313" s="10">
+        <f t="shared" si="94"/>
+        <v>124337.29192352103</v>
+      </c>
+      <c r="E313" s="10">
+        <f t="shared" si="94"/>
+        <v>44917.476065242903</v>
+      </c>
+      <c r="F313" s="10">
+        <f t="shared" si="94"/>
+        <v>101870.98800476997</v>
+      </c>
+      <c r="G313" s="10">
+        <f t="shared" si="94"/>
+        <v>9764.4727787937518</v>
+      </c>
+      <c r="H313" s="10">
+        <f t="shared" si="94"/>
+        <v>31478.919183151142</v>
+      </c>
+      <c r="I313" s="10">
+        <f t="shared" si="94"/>
+        <v>14976.441540821228</v>
+      </c>
+      <c r="J313" s="10" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K313" s="10" t="e">
+        <f t="shared" si="94"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L313" s="10">
+        <f t="shared" si="94"/>
+        <v>40538.337334577329</v>
+      </c>
+      <c r="M313" s="6"/>
+      <c r="Q313" s="6">
+        <f t="shared" si="82"/>
+        <v>1.891173929112157</v>
+      </c>
+      <c r="R313" s="6" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S313" s="6">
+        <f t="shared" si="84"/>
+        <v>1.2186712851949157</v>
+      </c>
+      <c r="T313" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7746982621128107</v>
+      </c>
+      <c r="U313" s="6">
+        <f t="shared" si="41"/>
+        <v>1.5891971165937382</v>
+      </c>
+      <c r="V313" s="6">
+        <f t="shared" si="42"/>
+        <v>1.3001509853159596</v>
+      </c>
+      <c r="W313" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2428176896008496</v>
+      </c>
+      <c r="X313" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2241643281084671</v>
+      </c>
+      <c r="Y313" s="6" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z313" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA313" s="6">
+        <f t="shared" si="47"/>
+        <v>1.1417403878687788</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A314" s="7">
         <f t="shared" si="48"/>
         <v>42680</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
+      <c r="B314" s="11">
+        <f t="shared" ref="B314:L314" si="95">SUM(Q300:Q313)/14*B307</f>
+        <v>71228.589983224374</v>
+      </c>
+      <c r="C314" s="11" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D314" s="11">
+        <f t="shared" si="95"/>
+        <v>120953.86181879278</v>
+      </c>
+      <c r="E314" s="11">
+        <f t="shared" si="95"/>
+        <v>34060.411149419015</v>
+      </c>
+      <c r="F314" s="11">
+        <f t="shared" si="95"/>
+        <v>111158.17410358698</v>
+      </c>
+      <c r="G314" s="11">
+        <f t="shared" si="95"/>
+        <v>9298.5027897318232</v>
+      </c>
+      <c r="H314" s="11">
+        <f t="shared" si="95"/>
+        <v>35355.816038520134</v>
+      </c>
+      <c r="I314" s="11">
+        <f t="shared" si="95"/>
+        <v>12854.173652094245</v>
+      </c>
+      <c r="J314" s="11" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K314" s="11" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L314" s="11">
+        <f t="shared" si="95"/>
+        <v>36937.66912641019</v>
+      </c>
+      <c r="M314" s="8"/>
+      <c r="N314" s="8"/>
+      <c r="O314" s="8"/>
+      <c r="P314" s="8"/>
+      <c r="Q314" s="8">
+        <f t="shared" si="82"/>
+        <v>1.8896450183924018</v>
+      </c>
+      <c r="R314" s="8" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S314" s="8">
+        <f t="shared" si="84"/>
+        <v>1.2189660945987428</v>
+      </c>
+      <c r="T314" s="8">
+        <f t="shared" si="52"/>
+        <v>1.7672350929132423</v>
+      </c>
+      <c r="U314" s="8">
+        <f t="shared" si="41"/>
+        <v>1.5830314660512346</v>
+      </c>
+      <c r="V314" s="8">
+        <f t="shared" si="42"/>
+        <v>1.2967660883343857</v>
+      </c>
+      <c r="W314" s="8">
+        <f t="shared" si="43"/>
+        <v>1.2377944111363663</v>
+      </c>
+      <c r="X314" s="8">
+        <f t="shared" si="44"/>
+        <v>1.222224914449918</v>
+      </c>
+      <c r="Y314" s="8" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z314" s="8" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA314" s="8">
+        <f t="shared" si="47"/>
+        <v>1.1539164762581713</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A315" s="7">
         <f t="shared" si="48"/>
         <v>42681</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B315" s="11">
+        <f t="shared" ref="B315:L315" si="96">SUM(Q301:Q314)/14*B308</f>
+        <v>77449.726047352437</v>
+      </c>
+      <c r="C315" s="11" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D315" s="11">
+        <f t="shared" si="96"/>
+        <v>86076.318692419052</v>
+      </c>
+      <c r="E315" s="11">
+        <f t="shared" si="96"/>
+        <v>26350.146856850166</v>
+      </c>
+      <c r="F315" s="11">
+        <f t="shared" si="96"/>
+        <v>130344.99610501545</v>
+      </c>
+      <c r="G315" s="11">
+        <f t="shared" si="96"/>
+        <v>9935.2631591731679</v>
+      </c>
+      <c r="H315" s="11">
+        <f t="shared" si="96"/>
+        <v>30383.247121051485</v>
+      </c>
+      <c r="I315" s="11">
+        <f t="shared" si="96"/>
+        <v>15278.748904242695</v>
+      </c>
+      <c r="J315" s="11" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K315" s="11" t="e">
+        <f t="shared" si="96"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L315" s="11">
+        <f t="shared" si="96"/>
+        <v>18830.784554338523</v>
+      </c>
+      <c r="M315" s="8"/>
+      <c r="N315" s="8"/>
+      <c r="O315" s="8"/>
+      <c r="P315" s="8"/>
+      <c r="Q315" s="8">
+        <f t="shared" si="82"/>
+        <v>1.8962116861003913</v>
+      </c>
+      <c r="R315" s="8" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S315" s="8">
+        <f t="shared" si="84"/>
+        <v>1.201239718328267</v>
+      </c>
+      <c r="T315" s="8">
+        <f t="shared" si="52"/>
+        <v>1.7505834585593376</v>
+      </c>
+      <c r="U315" s="8">
+        <f t="shared" si="41"/>
+        <v>1.5960518356498568</v>
+      </c>
+      <c r="V315" s="8">
+        <f t="shared" si="42"/>
+        <v>1.288177098752477</v>
+      </c>
+      <c r="W315" s="8">
+        <f t="shared" si="43"/>
+        <v>1.2245624943120961</v>
+      </c>
+      <c r="X315" s="8">
+        <f t="shared" si="44"/>
+        <v>1.2333920329095689</v>
+      </c>
+      <c r="Y315" s="8" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z315" s="8" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA315" s="8">
+        <f t="shared" si="47"/>
+        <v>1.1562513322009267</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <f t="shared" si="48"/>
         <v>42682</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B316" s="10">
+        <f t="shared" ref="B316:L316" si="97">SUM(Q302:Q315)/14*B309</f>
+        <v>61581.442701210362</v>
+      </c>
+      <c r="C316" s="10" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D316" s="10">
+        <f t="shared" si="97"/>
+        <v>99382.520433329089</v>
+      </c>
+      <c r="E316" s="10">
+        <f t="shared" si="97"/>
+        <v>34222.766120999717</v>
+      </c>
+      <c r="F316" s="10">
+        <f t="shared" si="97"/>
+        <v>65792.862056807935</v>
+      </c>
+      <c r="G316" s="10">
+        <f t="shared" si="97"/>
+        <v>9526.6079914312031</v>
+      </c>
+      <c r="H316" s="10">
+        <f t="shared" si="97"/>
+        <v>32062.639737626389</v>
+      </c>
+      <c r="I316" s="10">
+        <f t="shared" si="97"/>
+        <v>15396.150617308445</v>
+      </c>
+      <c r="J316" s="10" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K316" s="10" t="e">
+        <f t="shared" si="97"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L316" s="10">
+        <f t="shared" si="97"/>
+        <v>22259.406052296054</v>
+      </c>
+      <c r="Q316" s="6">
+        <f t="shared" si="82"/>
+        <v>1.9018390601518043</v>
+      </c>
+      <c r="R316" s="6" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S316" s="6">
+        <f t="shared" si="84"/>
+        <v>1.1982999120033819</v>
+      </c>
+      <c r="T316" s="6">
+        <f t="shared" si="52"/>
+        <v>1.7321899566314956</v>
+      </c>
+      <c r="U316" s="6">
+        <f t="shared" si="41"/>
+        <v>1.585545701416438</v>
+      </c>
+      <c r="V316" s="6">
+        <f t="shared" si="42"/>
+        <v>1.2665099836982558</v>
+      </c>
+      <c r="W316" s="6">
+        <f t="shared" si="43"/>
+        <v>1.2287869456565133</v>
+      </c>
+      <c r="X316" s="6">
+        <f t="shared" si="44"/>
+        <v>1.2352083903463327</v>
+      </c>
+      <c r="Y316" s="6" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z316" s="6" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA316" s="6">
+        <f t="shared" si="47"/>
+        <v>1.1510802218790399</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <f t="shared" si="48"/>
         <v>42683</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B317" s="10">
+        <f t="shared" ref="B317:L317" si="98">SUM(Q303:Q316)/14*B310</f>
+        <v>76376.173359734632</v>
+      </c>
+      <c r="C317" s="10" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D317" s="10">
+        <f t="shared" si="98"/>
+        <v>100735.57151541873</v>
+      </c>
+      <c r="E317" s="10">
+        <f t="shared" si="98"/>
+        <v>39305.501548823442</v>
+      </c>
+      <c r="F317" s="10">
+        <f t="shared" si="98"/>
+        <v>73730.968608099953</v>
+      </c>
+      <c r="G317" s="10">
+        <f t="shared" si="98"/>
+        <v>9705.6035878794828</v>
+      </c>
+      <c r="H317" s="10">
+        <f t="shared" si="98"/>
+        <v>40369.061201420744</v>
+      </c>
+      <c r="I317" s="10">
+        <f t="shared" si="98"/>
+        <v>15459.443528365842</v>
+      </c>
+      <c r="J317" s="10" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K317" s="10" t="e">
+        <f t="shared" si="98"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L317" s="10">
+        <f t="shared" si="98"/>
+        <v>34905.830713161689</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <f t="shared" si="48"/>
         <v>42684</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B318" s="10">
+        <f t="shared" ref="B318:L318" si="99">SUM(Q304:Q317)/14*B311</f>
+        <v>98260.636577214464</v>
+      </c>
+      <c r="C318" s="10" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D318" s="10">
+        <f t="shared" si="99"/>
+        <v>101009.19044865092</v>
+      </c>
+      <c r="E318" s="10">
+        <f t="shared" si="99"/>
+        <v>54638.340758071412</v>
+      </c>
+      <c r="F318" s="10">
+        <f t="shared" si="99"/>
+        <v>90479.713721495049</v>
+      </c>
+      <c r="G318" s="10">
+        <f t="shared" si="99"/>
+        <v>10236.2210787967</v>
+      </c>
+      <c r="H318" s="10">
+        <f t="shared" si="99"/>
+        <v>47054.953729443965</v>
+      </c>
+      <c r="I318" s="10">
+        <f t="shared" si="99"/>
+        <v>15135.695181824281</v>
+      </c>
+      <c r="J318" s="10" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K318" s="10" t="e">
+        <f t="shared" si="99"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L318" s="10">
+        <f t="shared" si="99"/>
+        <v>34322.615944672332</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <f t="shared" si="48"/>
         <v>42685</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B319" s="10">
+        <f t="shared" ref="B319:L319" si="100">SUM(Q305:Q318)/14*B312</f>
+        <v>94993.260869355785</v>
+      </c>
+      <c r="C319" s="10" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D319" s="10">
+        <f t="shared" si="100"/>
+        <v>107404.07344275597</v>
+      </c>
+      <c r="E319" s="10">
+        <f t="shared" si="100"/>
+        <v>50572.105330664584</v>
+      </c>
+      <c r="F319" s="10">
+        <f t="shared" si="100"/>
+        <v>134774.61002410707</v>
+      </c>
+      <c r="G319" s="10">
+        <f t="shared" si="100"/>
+        <v>9302.720980723554</v>
+      </c>
+      <c r="H319" s="10">
+        <f t="shared" si="100"/>
+        <v>34039.633198349613</v>
+      </c>
+      <c r="I319" s="10">
+        <f t="shared" si="100"/>
+        <v>14631.372476438941</v>
+      </c>
+      <c r="J319" s="10" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K319" s="10" t="e">
+        <f t="shared" si="100"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L319" s="10">
+        <f t="shared" si="100"/>
+        <v>32746.34805158529</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <f t="shared" si="48"/>
         <v>42686</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="10">
+        <f t="shared" ref="B320:L320" si="101">SUM(Q306:Q319)/14*B313</f>
+        <v>103620.29019914813</v>
+      </c>
+      <c r="C320" s="10" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D320" s="10">
+        <f t="shared" si="101"/>
+        <v>117750.96278435132</v>
+      </c>
+      <c r="E320" s="10">
+        <f t="shared" si="101"/>
+        <v>61549.223553789438</v>
+      </c>
+      <c r="F320" s="10">
+        <f t="shared" si="101"/>
+        <v>125272.91033168638</v>
+      </c>
+      <c r="G320" s="10">
+        <f t="shared" si="101"/>
+        <v>9745.9896681506816</v>
+      </c>
+      <c r="H320" s="10">
+        <f t="shared" si="101"/>
+        <v>30648.95484183275</v>
+      </c>
+      <c r="I320" s="10">
+        <f t="shared" si="101"/>
+        <v>14373.079528003658</v>
+      </c>
+      <c r="J320" s="10" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K320" s="10" t="e">
+        <f t="shared" si="101"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L320" s="10">
+        <f t="shared" si="101"/>
+        <v>37147.752574625832</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <f t="shared" si="48"/>
         <v>42687</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="10">
+        <f t="shared" ref="B321:L321" si="102">SUM(Q307:Q320)/14*B314</f>
+        <v>96686.213716017766</v>
+      </c>
+      <c r="C321" s="10" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D321" s="10">
+        <f t="shared" si="102"/>
+        <v>104216.53074734897</v>
+      </c>
+      <c r="E321" s="10">
+        <f t="shared" si="102"/>
+        <v>42487.206576925571</v>
+      </c>
+      <c r="F321" s="10">
+        <f t="shared" si="102"/>
+        <v>124584.62145581895</v>
+      </c>
+      <c r="G321" s="10">
+        <f t="shared" si="102"/>
+        <v>8467.7038491642488</v>
+      </c>
+      <c r="H321" s="10">
+        <f t="shared" si="102"/>
+        <v>31308.081741005484</v>
+      </c>
+      <c r="I321" s="10">
+        <f t="shared" si="102"/>
+        <v>11211.127214737757</v>
+      </c>
+      <c r="J321" s="10" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K321" s="10" t="e">
+        <f t="shared" si="102"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L321" s="10">
+        <f t="shared" si="102"/>
+        <v>30728.327147438191</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <f t="shared" si="48"/>
         <v>42688</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B322" s="10">
+        <f t="shared" ref="B322:L322" si="103">SUM(Q308:Q321)/14*B315</f>
+        <v>94513.275508767591</v>
+      </c>
+      <c r="C322" s="10" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D322" s="10">
+        <f t="shared" si="103"/>
+        <v>66819.911482894124</v>
+      </c>
+      <c r="E322" s="10">
+        <f t="shared" si="103"/>
+        <v>29623.548326700125</v>
+      </c>
+      <c r="F322" s="10">
+        <f t="shared" si="103"/>
+        <v>131695.93943849063</v>
+      </c>
+      <c r="G322" s="10">
+        <f t="shared" si="103"/>
+        <v>8172.3301268230416</v>
+      </c>
+      <c r="H322" s="10">
+        <f t="shared" si="103"/>
+        <v>24211.008248794595</v>
+      </c>
+      <c r="I322" s="10">
+        <f t="shared" si="103"/>
+        <v>11997.203454939156</v>
+      </c>
+      <c r="J322" s="10" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K322" s="10" t="e">
+        <f t="shared" si="103"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L322" s="10">
+        <f t="shared" si="103"/>
+        <v>14069.354015174698</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <f t="shared" si="48"/>
         <v>42689</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B323" s="10">
+        <f t="shared" ref="B323:L323" si="104">SUM(Q309:Q322)/14*B316</f>
+        <v>66703.41241142276</v>
+      </c>
+      <c r="C323" s="10" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D323" s="10">
+        <f t="shared" si="104"/>
+        <v>68591.638238910338</v>
+      </c>
+      <c r="E323" s="10">
+        <f t="shared" si="104"/>
+        <v>34237.559911799239</v>
+      </c>
+      <c r="F323" s="10">
+        <f t="shared" si="104"/>
+        <v>59095.529765158019</v>
+      </c>
+      <c r="G323" s="10">
+        <f t="shared" si="104"/>
+        <v>6988.4659384813913</v>
+      </c>
+      <c r="H323" s="10">
+        <f t="shared" si="104"/>
+        <v>22677.938060974699</v>
+      </c>
+      <c r="I323" s="10">
+        <f t="shared" si="104"/>
+        <v>10753.021588849469</v>
+      </c>
+      <c r="J323" s="10" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K323" s="10" t="e">
+        <f t="shared" si="104"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L323" s="10">
+        <f t="shared" si="104"/>
+        <v>14711.955965907307</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <f t="shared" ref="A324:A387" si="80">A323+1</f>
+        <f t="shared" ref="A324:A387" si="105">A323+1</f>
         <v>42690</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B324" s="10">
+        <f t="shared" ref="B324:L324" si="106">SUM(Q310:Q323)/14*B317</f>
+        <v>72341.963050978229</v>
+      </c>
+      <c r="C324" s="10" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D324" s="10">
+        <f t="shared" si="106"/>
+        <v>60795.698458282961</v>
+      </c>
+      <c r="E324" s="10">
+        <f t="shared" si="106"/>
+        <v>34460.689921577658</v>
+      </c>
+      <c r="F324" s="10">
+        <f t="shared" si="106"/>
+        <v>58062.441556911683</v>
+      </c>
+      <c r="G324" s="10">
+        <f t="shared" si="106"/>
+        <v>6244.8330281058925</v>
+      </c>
+      <c r="H324" s="10">
+        <f t="shared" si="106"/>
+        <v>24951.40069197155</v>
+      </c>
+      <c r="I324" s="10">
+        <f t="shared" si="106"/>
+        <v>9464.0438688133872</v>
+      </c>
+      <c r="J324" s="10" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K324" s="10" t="e">
+        <f t="shared" si="106"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L324" s="10">
+        <f t="shared" si="106"/>
+        <v>20004.472203521353</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42691</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B325" s="10">
+        <f t="shared" ref="B325:L325" si="107">SUM(Q311:Q324)/14*B318</f>
+        <v>79766.521001883302</v>
+      </c>
+      <c r="C325" s="10" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D325" s="10">
+        <f t="shared" si="107"/>
+        <v>52326.415982133178</v>
+      </c>
+      <c r="E325" s="10">
+        <f t="shared" si="107"/>
+        <v>41126.971171800811</v>
+      </c>
+      <c r="F325" s="10">
+        <f t="shared" si="107"/>
+        <v>61237.70153946041</v>
+      </c>
+      <c r="G325" s="10">
+        <f t="shared" si="107"/>
+        <v>5650.344520604549</v>
+      </c>
+      <c r="H325" s="10">
+        <f t="shared" si="107"/>
+        <v>24908.862816130553</v>
+      </c>
+      <c r="I325" s="10">
+        <f t="shared" si="107"/>
+        <v>7954.4601850270465</v>
+      </c>
+      <c r="J325" s="10" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K325" s="10" t="e">
+        <f t="shared" si="107"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L325" s="10">
+        <f t="shared" si="107"/>
+        <v>16759.913249266676</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42692</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B326" s="10">
+        <f t="shared" ref="B326:L326" si="108">SUM(Q312:Q325)/14*B319</f>
+        <v>64227.161641712395</v>
+      </c>
+      <c r="C326" s="10" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D326" s="10">
+        <f t="shared" si="108"/>
+        <v>46413.266150242045</v>
+      </c>
+      <c r="E326" s="10">
+        <f t="shared" si="108"/>
+        <v>31727.792070908181</v>
+      </c>
+      <c r="F326" s="10">
+        <f t="shared" si="108"/>
+        <v>76317.993519884025</v>
+      </c>
+      <c r="G326" s="10">
+        <f t="shared" si="108"/>
+        <v>4281.9716533090013</v>
+      </c>
+      <c r="H326" s="10">
+        <f t="shared" si="108"/>
+        <v>14998.179445565254</v>
+      </c>
+      <c r="I326" s="10">
+        <f t="shared" si="108"/>
+        <v>6413.7358642885192</v>
+      </c>
+      <c r="J326" s="10" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K326" s="10" t="e">
+        <f t="shared" si="108"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L326" s="10">
+        <f t="shared" si="108"/>
+        <v>13394.924687214767</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42693</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B327" s="10">
+        <f t="shared" ref="B327:L327" si="109">SUM(Q313:Q326)/14*B320</f>
+        <v>56094.619789185992</v>
+      </c>
+      <c r="C327" s="10" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D327" s="10">
+        <f t="shared" si="109"/>
+        <v>40684.446435756057</v>
+      </c>
+      <c r="E327" s="10">
+        <f t="shared" si="109"/>
+        <v>30883.231957135522</v>
+      </c>
+      <c r="F327" s="10">
+        <f t="shared" si="109"/>
+        <v>56854.449268408323</v>
+      </c>
+      <c r="G327" s="10">
+        <f t="shared" si="109"/>
+        <v>3586.2486342688012</v>
+      </c>
+      <c r="H327" s="10">
+        <f t="shared" si="109"/>
+        <v>10801.48317517374</v>
+      </c>
+      <c r="I327" s="10">
+        <f t="shared" si="109"/>
+        <v>5045.9669532903472</v>
+      </c>
+      <c r="J327" s="10" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K327" s="10" t="e">
+        <f t="shared" si="109"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L327" s="10">
+        <f t="shared" si="109"/>
+        <v>12213.619633101349</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42694</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B328" s="10">
+        <f t="shared" ref="B328:L328" si="110">SUM(Q314:Q327)/14*B321</f>
+        <v>39280.126303722616</v>
+      </c>
+      <c r="C328" s="10" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D328" s="10">
+        <f t="shared" si="110"/>
+        <v>26936.293795833317</v>
+      </c>
+      <c r="E328" s="10">
+        <f t="shared" si="110"/>
+        <v>15932.728286745334</v>
+      </c>
+      <c r="F328" s="10">
+        <f t="shared" si="110"/>
+        <v>42399.96433791524</v>
+      </c>
+      <c r="G328" s="10">
+        <f t="shared" si="110"/>
+        <v>2329.4974885094998</v>
+      </c>
+      <c r="H328" s="10">
+        <f t="shared" si="110"/>
+        <v>8254.4738148717406</v>
+      </c>
+      <c r="I328" s="10">
+        <f t="shared" si="110"/>
+        <v>2955.5937420283844</v>
+      </c>
+      <c r="J328" s="10" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K328" s="10" t="e">
+        <f t="shared" si="110"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L328" s="10">
+        <f t="shared" si="110"/>
+        <v>7597.0258439040254</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42695</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B329" s="10">
+        <f t="shared" ref="B329:L329" si="111">SUM(Q315:Q328)/14*B322</f>
+        <v>25640.444041201004</v>
+      </c>
+      <c r="C329" s="10" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D329" s="10">
+        <f t="shared" si="111"/>
+        <v>11452.644692746948</v>
+      </c>
+      <c r="E329" s="10">
+        <f t="shared" si="111"/>
+        <v>7369.4361839894345</v>
+      </c>
+      <c r="F329" s="10">
+        <f t="shared" si="111"/>
+        <v>29928.819754223834</v>
+      </c>
+      <c r="G329" s="10">
+        <f t="shared" si="111"/>
+        <v>1491.2675863226989</v>
+      </c>
+      <c r="H329" s="10">
+        <f t="shared" si="111"/>
+        <v>4242.7188234468285</v>
+      </c>
+      <c r="I329" s="10">
+        <f t="shared" si="111"/>
+        <v>2115.4501090535691</v>
+      </c>
+      <c r="J329" s="10" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K329" s="10" t="e">
+        <f t="shared" si="111"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L329" s="10">
+        <f t="shared" si="111"/>
+        <v>2318.7617474810177</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42696</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B330" s="10">
+        <f t="shared" ref="B330:L330" si="112">SUM(Q316:Q329)/14*B323</f>
+        <v>9061.36822638989</v>
+      </c>
+      <c r="C330" s="10" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D330" s="10">
+        <f t="shared" si="112"/>
+        <v>5870.9538618467195</v>
+      </c>
+      <c r="E330" s="10">
+        <f t="shared" si="112"/>
+        <v>4236.1398156276964</v>
+      </c>
+      <c r="F330" s="10">
+        <f t="shared" si="112"/>
+        <v>6692.7616565766757</v>
+      </c>
+      <c r="G330" s="10">
+        <f t="shared" si="112"/>
+        <v>632.21156298727738</v>
+      </c>
+      <c r="H330" s="10">
+        <f t="shared" si="112"/>
+        <v>1990.4538745523348</v>
+      </c>
+      <c r="I330" s="10">
+        <f t="shared" si="112"/>
+        <v>948.73017772300852</v>
+      </c>
+      <c r="J330" s="10" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K330" s="10" t="e">
+        <f t="shared" si="112"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L330" s="10">
+        <f t="shared" si="112"/>
+        <v>1209.6172526793748</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42697</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B331" s="10">
+        <f t="shared" ref="B331:L331" si="113">SUM(Q317:Q330)/14*B324</f>
+        <v>0</v>
+      </c>
+      <c r="C331" s="10" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D331" s="10">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="E331" s="10">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="F331" s="10">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="G331" s="10">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H331" s="10">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="I331" s="10">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="J331" s="10" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K331" s="10" t="e">
+        <f t="shared" si="113"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L331" s="10">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42698</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B332" s="10">
+        <f t="shared" ref="B332:L332" si="114">SUM(Q318:Q331)/14*B325</f>
+        <v>0</v>
+      </c>
+      <c r="C332" s="10" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D332" s="10">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="E332" s="10">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="F332" s="10">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="G332" s="10">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="H332" s="10">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="I332" s="10">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="J332" s="10" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K332" s="10" t="e">
+        <f t="shared" si="114"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L332" s="10">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42699</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B333" s="10">
+        <f t="shared" ref="B333:L333" si="115">SUM(Q319:Q332)/14*B326</f>
+        <v>0</v>
+      </c>
+      <c r="C333" s="10" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D333" s="10">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="E333" s="10">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="F333" s="10">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="G333" s="10">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="H333" s="10">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="I333" s="10">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="J333" s="10" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K333" s="10" t="e">
+        <f t="shared" si="115"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L333" s="10">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42700</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B334" s="10">
+        <f t="shared" ref="B334:L334" si="116">SUM(Q320:Q333)/14*B327</f>
+        <v>0</v>
+      </c>
+      <c r="C334" s="10" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D334" s="10">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="E334" s="10">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="F334" s="10">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="G334" s="10">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="H334" s="10">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="I334" s="10">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="J334" s="10" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K334" s="10" t="e">
+        <f t="shared" si="116"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L334" s="10">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42701</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B335" s="10">
+        <f t="shared" ref="B335:L335" si="117">SUM(Q321:Q334)/14*B328</f>
+        <v>0</v>
+      </c>
+      <c r="C335" s="10" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D335" s="10">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="E335" s="10">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="F335" s="10">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="G335" s="10">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="H335" s="10">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="I335" s="10">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="J335" s="10" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K335" s="10" t="e">
+        <f t="shared" si="117"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L335" s="10">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42702</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B336" s="10">
+        <f t="shared" ref="B336:L336" si="118">SUM(Q322:Q335)/14*B329</f>
+        <v>0</v>
+      </c>
+      <c r="C336" s="10" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D336" s="10">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="E336" s="10">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="F336" s="10">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G336" s="10">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="H336" s="10">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="I336" s="10">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="J336" s="10" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K336" s="10" t="e">
+        <f t="shared" si="118"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L336" s="10">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42703</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B337" s="10">
+        <f t="shared" ref="B337:L337" si="119">SUM(Q323:Q336)/14*B330</f>
+        <v>0</v>
+      </c>
+      <c r="C337" s="10" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D337" s="10">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="E337" s="10">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="F337" s="10">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="G337" s="10">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="H337" s="10">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="I337" s="10">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="J337" s="10" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K337" s="10" t="e">
+        <f t="shared" si="119"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L337" s="10">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42704</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B338" s="10">
+        <f t="shared" ref="B338:L338" si="120">SUM(Q324:Q337)/14*B331</f>
+        <v>0</v>
+      </c>
+      <c r="C338" s="10" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D338" s="10">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="E338" s="10">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="F338" s="10">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="G338" s="10">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="H338" s="10">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="I338" s="10">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="J338" s="10" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K338" s="10" t="e">
+        <f t="shared" si="120"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L338" s="10">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42705</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B339" s="10">
+        <f t="shared" ref="B339:L339" si="121">SUM(Q325:Q338)/14*B332</f>
+        <v>0</v>
+      </c>
+      <c r="C339" s="10" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D339" s="10">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="E339" s="10">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="F339" s="10">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="G339" s="10">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="H339" s="10">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I339" s="10">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="J339" s="10" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K339" s="10" t="e">
+        <f t="shared" si="121"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L339" s="10">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42706</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B340" s="10">
+        <f t="shared" ref="B340:L340" si="122">SUM(Q326:Q339)/14*B333</f>
+        <v>0</v>
+      </c>
+      <c r="C340" s="10" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D340" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="E340" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="F340" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="G340" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="H340" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="I340" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="J340" s="10" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K340" s="10" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L340" s="10">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42707</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B341" s="10">
+        <f t="shared" ref="B341:L341" si="123">SUM(Q327:Q340)/14*B334</f>
+        <v>0</v>
+      </c>
+      <c r="C341" s="10" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D341" s="10">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="E341" s="10">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="F341" s="10">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="G341" s="10">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H341" s="10">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="I341" s="10">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="J341" s="10" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K341" s="10" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L341" s="10">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42708</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B342" s="10">
+        <f t="shared" ref="B342:L342" si="124">SUM(Q328:Q341)/14*B335</f>
+        <v>0</v>
+      </c>
+      <c r="C342" s="10" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D342" s="10">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="E342" s="10">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="F342" s="10">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="G342" s="10">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="H342" s="10">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="I342" s="10">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="J342" s="10" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K342" s="10" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L342" s="10">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42709</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B343" s="10">
+        <f t="shared" ref="B343:L343" si="125">SUM(Q329:Q342)/14*B336</f>
+        <v>0</v>
+      </c>
+      <c r="C343" s="10" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D343" s="10">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="E343" s="10">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="F343" s="10">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="G343" s="10">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="H343" s="10">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="I343" s="10">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J343" s="10" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K343" s="10" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L343" s="10">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42710</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B344" s="10">
+        <f t="shared" ref="B344:L344" si="126">SUM(Q330:Q343)/14*B337</f>
+        <v>0</v>
+      </c>
+      <c r="C344" s="10" t="e">
+        <f t="shared" si="126"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D344" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="E344" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="F344" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="G344" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="H344" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="I344" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="J344" s="10" t="e">
+        <f t="shared" si="126"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K344" s="10" t="e">
+        <f t="shared" si="126"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L344" s="10">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42711</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B345" s="10">
+        <f t="shared" ref="B345:L345" si="127">SUM(Q331:Q344)/14*B338</f>
+        <v>0</v>
+      </c>
+      <c r="C345" s="10" t="e">
+        <f t="shared" si="127"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D345" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="E345" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="F345" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="G345" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H345" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="I345" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="J345" s="10" t="e">
+        <f t="shared" si="127"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K345" s="10" t="e">
+        <f t="shared" si="127"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L345" s="10">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42712</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B346" s="10">
+        <f t="shared" ref="B346:L346" si="128">SUM(Q332:Q345)/14*B339</f>
+        <v>0</v>
+      </c>
+      <c r="C346" s="10" t="e">
+        <f t="shared" si="128"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D346" s="10">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="E346" s="10">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="F346" s="10">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="G346" s="10">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="H346" s="10">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="I346" s="10">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="J346" s="10" t="e">
+        <f t="shared" si="128"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K346" s="10" t="e">
+        <f t="shared" si="128"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L346" s="10">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42713</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B347" s="10">
+        <f t="shared" ref="B347:L347" si="129">SUM(Q333:Q346)/14*B340</f>
+        <v>0</v>
+      </c>
+      <c r="C347" s="10" t="e">
+        <f t="shared" si="129"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D347" s="10">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="E347" s="10">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="F347" s="10">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="G347" s="10">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="H347" s="10">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="I347" s="10">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="J347" s="10" t="e">
+        <f t="shared" si="129"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K347" s="10" t="e">
+        <f t="shared" si="129"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L347" s="10">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42714</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B348" s="10">
+        <f t="shared" ref="B348:L348" si="130">SUM(Q334:Q347)/14*B341</f>
+        <v>0</v>
+      </c>
+      <c r="C348" s="10" t="e">
+        <f t="shared" si="130"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D348" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="E348" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="F348" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="G348" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H348" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="I348" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="J348" s="10" t="e">
+        <f t="shared" si="130"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K348" s="10" t="e">
+        <f t="shared" si="130"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L348" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42715</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B349" s="10">
+        <f t="shared" ref="B349:L349" si="131">SUM(Q335:Q348)/14*B342</f>
+        <v>0</v>
+      </c>
+      <c r="C349" s="10" t="e">
+        <f t="shared" si="131"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D349" s="10">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="E349" s="10">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="F349" s="10">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="G349" s="10">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="H349" s="10">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="I349" s="10">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="J349" s="10" t="e">
+        <f t="shared" si="131"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K349" s="10" t="e">
+        <f t="shared" si="131"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L349" s="10">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42716</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B350" s="10">
+        <f t="shared" ref="B350:L350" si="132">SUM(Q336:Q349)/14*B343</f>
+        <v>0</v>
+      </c>
+      <c r="C350" s="10" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D350" s="10">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="E350" s="10">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="F350" s="10">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="G350" s="10">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="H350" s="10">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="I350" s="10">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="J350" s="10" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K350" s="10" t="e">
+        <f t="shared" si="132"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L350" s="10">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42717</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B351" s="10">
+        <f t="shared" ref="B351:L351" si="133">SUM(Q337:Q350)/14*B344</f>
+        <v>0</v>
+      </c>
+      <c r="C351" s="10" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D351" s="10">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="E351" s="10">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="F351" s="10">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="G351" s="10">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="H351" s="10">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="I351" s="10">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="J351" s="10" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K351" s="10" t="e">
+        <f t="shared" si="133"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L351" s="10">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42718</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B352" s="10">
+        <f t="shared" ref="B352:L352" si="134">SUM(Q338:Q351)/14*B345</f>
+        <v>0</v>
+      </c>
+      <c r="C352" s="10" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D352" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="E352" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="F352" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="G352" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H352" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="I352" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="J352" s="10" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K352" s="10" t="e">
+        <f t="shared" si="134"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L352" s="10">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42719</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B353" s="10">
+        <f t="shared" ref="B353:L353" si="135">SUM(Q339:Q352)/14*B346</f>
+        <v>0</v>
+      </c>
+      <c r="C353" s="10" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D353" s="10">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="E353" s="10">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="F353" s="10">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="G353" s="10">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="H353" s="10">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="I353" s="10">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="J353" s="10" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K353" s="10" t="e">
+        <f t="shared" si="135"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L353" s="10">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42720</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B354" s="10">
+        <f t="shared" ref="B354:L354" si="136">SUM(Q340:Q353)/14*B347</f>
+        <v>0</v>
+      </c>
+      <c r="C354" s="10" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D354" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="E354" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="F354" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G354" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="H354" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="I354" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="J354" s="10" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K354" s="10" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L354" s="10">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42721</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B355" s="10">
+        <f t="shared" ref="B355:L355" si="137">SUM(Q341:Q354)/14*B348</f>
+        <v>0</v>
+      </c>
+      <c r="C355" s="10" t="e">
+        <f t="shared" si="137"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D355" s="10">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="E355" s="10">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="F355" s="10">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="G355" s="10">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="H355" s="10">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="I355" s="10">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="J355" s="10" t="e">
+        <f t="shared" si="137"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K355" s="10" t="e">
+        <f t="shared" si="137"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L355" s="10">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42722</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B356" s="10">
+        <f t="shared" ref="B356:L356" si="138">SUM(Q342:Q355)/14*B349</f>
+        <v>0</v>
+      </c>
+      <c r="C356" s="10" t="e">
+        <f t="shared" si="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D356" s="10">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="E356" s="10">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="F356" s="10">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="G356" s="10">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H356" s="10">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="I356" s="10">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="J356" s="10" t="e">
+        <f t="shared" si="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K356" s="10" t="e">
+        <f t="shared" si="138"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L356" s="10">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42723</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B357" s="10">
+        <f t="shared" ref="B357:L357" si="139">SUM(Q343:Q356)/14*B350</f>
+        <v>0</v>
+      </c>
+      <c r="C357" s="10" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D357" s="10">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="E357" s="10">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="F357" s="10">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="G357" s="10">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="H357" s="10">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="I357" s="10">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="J357" s="10" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K357" s="10" t="e">
+        <f t="shared" si="139"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L357" s="10">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42724</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B358" s="10">
+        <f t="shared" ref="B358:L358" si="140">SUM(Q344:Q357)/14*B351</f>
+        <v>0</v>
+      </c>
+      <c r="C358" s="10" t="e">
+        <f t="shared" si="140"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D358" s="10">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="E358" s="10">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="F358" s="10">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="G358" s="10">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="H358" s="10">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="I358" s="10">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="J358" s="10" t="e">
+        <f t="shared" si="140"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K358" s="10" t="e">
+        <f t="shared" si="140"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L358" s="10">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42725</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="10">
+        <f t="shared" ref="E307:E370" si="141">E352*T352</f>
+        <v>0</v>
+      </c>
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+      <c r="H359" s="12"/>
+      <c r="I359" s="12"/>
+      <c r="J359" s="12"/>
+      <c r="K359" s="12"/>
+      <c r="L359" s="12"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42726</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+      <c r="H360" s="12"/>
+      <c r="I360" s="12"/>
+      <c r="J360" s="12"/>
+      <c r="K360" s="12"/>
+      <c r="L360" s="12"/>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42727</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B361" s="12"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+      <c r="E361" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F361" s="12"/>
+      <c r="G361" s="12"/>
+      <c r="H361" s="12"/>
+      <c r="I361" s="12"/>
+      <c r="J361" s="12"/>
+      <c r="K361" s="12"/>
+      <c r="L361" s="12"/>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42728</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B362" s="12"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+      <c r="E362" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F362" s="12"/>
+      <c r="G362" s="12"/>
+      <c r="H362" s="12"/>
+      <c r="I362" s="12"/>
+      <c r="J362" s="12"/>
+      <c r="K362" s="12"/>
+      <c r="L362" s="12"/>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42729</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
+      <c r="H363" s="12"/>
+      <c r="I363" s="12"/>
+      <c r="J363" s="12"/>
+      <c r="K363" s="12"/>
+      <c r="L363" s="12"/>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42730</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B364" s="12"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F364" s="12"/>
+      <c r="G364" s="12"/>
+      <c r="H364" s="12"/>
+      <c r="I364" s="12"/>
+      <c r="J364" s="12"/>
+      <c r="K364" s="12"/>
+      <c r="L364" s="12"/>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42731</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F365" s="12"/>
+      <c r="G365" s="12"/>
+      <c r="H365" s="12"/>
+      <c r="I365" s="12"/>
+      <c r="J365" s="12"/>
+      <c r="K365" s="12"/>
+      <c r="L365" s="12"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42732</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B366" s="9"/>
+      <c r="C366" s="9"/>
+      <c r="D366" s="9"/>
+      <c r="E366" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F366" s="9"/>
+      <c r="G366" s="9"/>
+      <c r="H366" s="9"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="9"/>
+      <c r="K366" s="9"/>
+      <c r="L366" s="9"/>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42733</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B367" s="9"/>
+      <c r="C367" s="9"/>
+      <c r="D367" s="9"/>
+      <c r="E367" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F367" s="9"/>
+      <c r="G367" s="9"/>
+      <c r="H367" s="9"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="9"/>
+      <c r="K367" s="9"/>
+      <c r="L367" s="9"/>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42734</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B368" s="9"/>
+      <c r="C368" s="9"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F368" s="9"/>
+      <c r="G368" s="9"/>
+      <c r="H368" s="9"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="9"/>
+      <c r="K368" s="9"/>
+      <c r="L368" s="9"/>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42735</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B369" s="9"/>
+      <c r="C369" s="9"/>
+      <c r="D369" s="9"/>
+      <c r="E369" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F369" s="9"/>
+      <c r="G369" s="9"/>
+      <c r="H369" s="9"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="9"/>
+      <c r="K369" s="9"/>
+      <c r="L369" s="9"/>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42736</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B370" s="9"/>
+      <c r="C370" s="9"/>
+      <c r="D370" s="9"/>
+      <c r="E370" s="10">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="F370" s="9"/>
+      <c r="G370" s="9"/>
+      <c r="H370" s="9"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="9"/>
+      <c r="K370" s="9"/>
+      <c r="L370" s="9"/>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42737</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B371" s="9"/>
+      <c r="C371" s="9"/>
+      <c r="D371" s="9"/>
+      <c r="E371" s="10">
+        <f t="shared" ref="E371:E377" si="142">E364*T364</f>
+        <v>0</v>
+      </c>
+      <c r="F371" s="9"/>
+      <c r="G371" s="9"/>
+      <c r="H371" s="9"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="9"/>
+      <c r="K371" s="9"/>
+      <c r="L371" s="9"/>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42738</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="F372" s="9"/>
+      <c r="G372" s="9"/>
+      <c r="H372" s="9"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="9"/>
+      <c r="K372" s="9"/>
+      <c r="L372" s="9"/>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42739</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B373" s="9"/>
+      <c r="C373" s="9"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="F373" s="9"/>
+      <c r="G373" s="9"/>
+      <c r="H373" s="9"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="9"/>
+      <c r="L373" s="9"/>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42740</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B374" s="9"/>
+      <c r="C374" s="9"/>
+      <c r="D374" s="9"/>
+      <c r="E374" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="F374" s="9"/>
+      <c r="G374" s="9"/>
+      <c r="H374" s="9"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="9"/>
+      <c r="K374" s="9"/>
+      <c r="L374" s="9"/>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42741</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B375" s="9"/>
+      <c r="C375" s="9"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="F375" s="9"/>
+      <c r="G375" s="9"/>
+      <c r="H375" s="9"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="9"/>
+      <c r="K375" s="9"/>
+      <c r="L375" s="9"/>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42742</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B376" s="9"/>
+      <c r="C376" s="9"/>
+      <c r="D376" s="9"/>
+      <c r="E376" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="F376" s="9"/>
+      <c r="G376" s="9"/>
+      <c r="H376" s="9"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="9"/>
+      <c r="K376" s="9"/>
+      <c r="L376" s="9"/>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42743</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B377" s="9"/>
+      <c r="C377" s="9"/>
+      <c r="D377" s="9"/>
+      <c r="E377" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="F377" s="9"/>
+      <c r="G377" s="9"/>
+      <c r="H377" s="9"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="9"/>
+      <c r="K377" s="9"/>
+      <c r="L377" s="9"/>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42744</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B378" s="9"/>
+      <c r="C378" s="9"/>
+      <c r="D378" s="9"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="9"/>
+      <c r="G378" s="9"/>
+      <c r="H378" s="9"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="9"/>
+      <c r="K378" s="9"/>
+      <c r="L378" s="9"/>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42745</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B379" s="9"/>
+      <c r="C379" s="9"/>
+      <c r="D379" s="9"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="9"/>
+      <c r="G379" s="9"/>
+      <c r="H379" s="9"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="9"/>
+      <c r="K379" s="9"/>
+      <c r="L379" s="9"/>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42746</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B380" s="9"/>
+      <c r="C380" s="9"/>
+      <c r="D380" s="9"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="9"/>
+      <c r="G380" s="9"/>
+      <c r="H380" s="9"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="9"/>
+      <c r="K380" s="9"/>
+      <c r="L380" s="9"/>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42747</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B381" s="9"/>
+      <c r="C381" s="9"/>
+      <c r="D381" s="9"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="9"/>
+      <c r="G381" s="9"/>
+      <c r="H381" s="9"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="9"/>
+      <c r="K381" s="9"/>
+      <c r="L381" s="9"/>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42748</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B382" s="9"/>
+      <c r="C382" s="9"/>
+      <c r="D382" s="9"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="9"/>
+      <c r="G382" s="9"/>
+      <c r="H382" s="9"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="9"/>
+      <c r="K382" s="9"/>
+      <c r="L382" s="9"/>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42749</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B383" s="9"/>
+      <c r="C383" s="9"/>
+      <c r="D383" s="9"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="9"/>
+      <c r="G383" s="9"/>
+      <c r="H383" s="9"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="9"/>
+      <c r="K383" s="9"/>
+      <c r="L383" s="9"/>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42750</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" s="9"/>
+      <c r="C384" s="9"/>
+      <c r="D384" s="9"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="9"/>
+      <c r="G384" s="9"/>
+      <c r="H384" s="9"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="9"/>
+      <c r="K384" s="9"/>
+      <c r="L384" s="9"/>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42751</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" s="9"/>
+      <c r="C385" s="9"/>
+      <c r="D385" s="9"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="9"/>
+      <c r="G385" s="9"/>
+      <c r="H385" s="9"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="9"/>
+      <c r="K385" s="9"/>
+      <c r="L385" s="9"/>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42752</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" s="9"/>
+      <c r="C386" s="9"/>
+      <c r="D386" s="9"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="9"/>
+      <c r="G386" s="9"/>
+      <c r="H386" s="9"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="9"/>
+      <c r="K386" s="9"/>
+      <c r="L386" s="9"/>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="105"/>
         <v>42753</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" s="9"/>
+      <c r="C387" s="9"/>
+      <c r="D387" s="9"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="9"/>
+      <c r="G387" s="9"/>
+      <c r="H387" s="9"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="9"/>
+      <c r="K387" s="9"/>
+      <c r="L387" s="9"/>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
-        <f t="shared" ref="A388:A409" si="81">A387+1</f>
+        <f t="shared" ref="A388:A409" si="143">A387+1</f>
         <v>42754</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" s="9"/>
+      <c r="C388" s="9"/>
+      <c r="D388" s="9"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="9"/>
+      <c r="G388" s="9"/>
+      <c r="H388" s="9"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="9"/>
+      <c r="K388" s="9"/>
+      <c r="L388" s="9"/>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42755</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" s="9"/>
+      <c r="C389" s="9"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="9"/>
+      <c r="G389" s="9"/>
+      <c r="H389" s="9"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="9"/>
+      <c r="K389" s="9"/>
+      <c r="L389" s="9"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42756</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" s="9"/>
+      <c r="C390" s="9"/>
+      <c r="D390" s="9"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="9"/>
+      <c r="G390" s="9"/>
+      <c r="H390" s="9"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="9"/>
+      <c r="K390" s="9"/>
+      <c r="L390" s="9"/>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42757</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" s="9"/>
+      <c r="C391" s="9"/>
+      <c r="D391" s="9"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="9"/>
+      <c r="G391" s="9"/>
+      <c r="H391" s="9"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="9"/>
+      <c r="K391" s="9"/>
+      <c r="L391" s="9"/>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42758</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" s="9"/>
+      <c r="C392" s="9"/>
+      <c r="D392" s="9"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="9"/>
+      <c r="G392" s="9"/>
+      <c r="H392" s="9"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="9"/>
+      <c r="K392" s="9"/>
+      <c r="L392" s="9"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42759</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" s="9"/>
+      <c r="C393" s="9"/>
+      <c r="D393" s="9"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="9"/>
+      <c r="G393" s="9"/>
+      <c r="H393" s="9"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="9"/>
+      <c r="K393" s="9"/>
+      <c r="L393" s="9"/>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42760</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" s="9"/>
+      <c r="C394" s="9"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="9"/>
+      <c r="H394" s="9"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="9"/>
+      <c r="K394" s="9"/>
+      <c r="L394" s="9"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42761</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" s="9"/>
+      <c r="C395" s="9"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="9"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="9"/>
+      <c r="H395" s="9"/>
+      <c r="I395" s="9"/>
+      <c r="J395" s="9"/>
+      <c r="K395" s="9"/>
+      <c r="L395" s="9"/>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42762</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" s="9"/>
+      <c r="C396" s="9"/>
+      <c r="D396" s="9"/>
+      <c r="E396" s="9"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="9"/>
+      <c r="H396" s="9"/>
+      <c r="I396" s="9"/>
+      <c r="J396" s="9"/>
+      <c r="K396" s="9"/>
+      <c r="L396" s="9"/>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42763</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="9"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="9"/>
+      <c r="H397" s="9"/>
+      <c r="I397" s="9"/>
+      <c r="J397" s="9"/>
+      <c r="K397" s="9"/>
+      <c r="L397" s="9"/>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42764</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" s="9"/>
+      <c r="C398" s="9"/>
+      <c r="D398" s="9"/>
+      <c r="E398" s="9"/>
+      <c r="F398" s="9"/>
+      <c r="G398" s="9"/>
+      <c r="H398" s="9"/>
+      <c r="I398" s="9"/>
+      <c r="J398" s="9"/>
+      <c r="K398" s="9"/>
+      <c r="L398" s="9"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42765</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" s="9"/>
+      <c r="C399" s="9"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="9"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="9"/>
+      <c r="H399" s="9"/>
+      <c r="I399" s="9"/>
+      <c r="J399" s="9"/>
+      <c r="K399" s="9"/>
+      <c r="L399" s="9"/>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42766</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B400" s="9"/>
+      <c r="C400" s="9"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="9"/>
+      <c r="F400" s="9"/>
+      <c r="G400" s="9"/>
+      <c r="H400" s="9"/>
+      <c r="I400" s="9"/>
+      <c r="J400" s="9"/>
+      <c r="K400" s="9"/>
+      <c r="L400" s="9"/>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42767</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B401" s="9"/>
+      <c r="C401" s="9"/>
+      <c r="D401" s="9"/>
+      <c r="E401" s="9"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="9"/>
+      <c r="H401" s="9"/>
+      <c r="I401" s="9"/>
+      <c r="J401" s="9"/>
+      <c r="K401" s="9"/>
+      <c r="L401" s="9"/>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42768</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B402" s="9"/>
+      <c r="C402" s="9"/>
+      <c r="D402" s="9"/>
+      <c r="E402" s="9"/>
+      <c r="F402" s="9"/>
+      <c r="G402" s="9"/>
+      <c r="H402" s="9"/>
+      <c r="I402" s="9"/>
+      <c r="J402" s="9"/>
+      <c r="K402" s="9"/>
+      <c r="L402" s="9"/>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42769</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B403" s="9"/>
+      <c r="C403" s="9"/>
+      <c r="D403" s="9"/>
+      <c r="E403" s="9"/>
+      <c r="F403" s="9"/>
+      <c r="G403" s="9"/>
+      <c r="H403" s="9"/>
+      <c r="I403" s="9"/>
+      <c r="J403" s="9"/>
+      <c r="K403" s="9"/>
+      <c r="L403" s="9"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42770</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B404" s="9"/>
+      <c r="C404" s="9"/>
+      <c r="D404" s="9"/>
+      <c r="E404" s="9"/>
+      <c r="F404" s="9"/>
+      <c r="G404" s="9"/>
+      <c r="H404" s="9"/>
+      <c r="I404" s="9"/>
+      <c r="J404" s="9"/>
+      <c r="K404" s="9"/>
+      <c r="L404" s="9"/>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42771</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B405" s="9"/>
+      <c r="C405" s="9"/>
+      <c r="D405" s="9"/>
+      <c r="E405" s="9"/>
+      <c r="F405" s="9"/>
+      <c r="G405" s="9"/>
+      <c r="H405" s="9"/>
+      <c r="I405" s="9"/>
+      <c r="J405" s="9"/>
+      <c r="K405" s="9"/>
+      <c r="L405" s="9"/>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42772</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B406" s="9"/>
+      <c r="C406" s="9"/>
+      <c r="D406" s="9"/>
+      <c r="E406" s="9"/>
+      <c r="F406" s="9"/>
+      <c r="G406" s="9"/>
+      <c r="H406" s="9"/>
+      <c r="I406" s="9"/>
+      <c r="J406" s="9"/>
+      <c r="K406" s="9"/>
+      <c r="L406" s="9"/>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42773</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B407" s="9"/>
+      <c r="C407" s="9"/>
+      <c r="D407" s="9"/>
+      <c r="E407" s="9"/>
+      <c r="F407" s="9"/>
+      <c r="G407" s="9"/>
+      <c r="H407" s="9"/>
+      <c r="I407" s="9"/>
+      <c r="J407" s="9"/>
+      <c r="K407" s="9"/>
+      <c r="L407" s="9"/>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42774</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B408" s="9"/>
+      <c r="C408" s="9"/>
+      <c r="D408" s="9"/>
+      <c r="E408" s="9"/>
+      <c r="F408" s="9"/>
+      <c r="G408" s="9"/>
+      <c r="H408" s="9"/>
+      <c r="I408" s="9"/>
+      <c r="J408" s="9"/>
+      <c r="K408" s="9"/>
+      <c r="L408" s="9"/>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
-        <f t="shared" si="81"/>
+        <f t="shared" si="143"/>
         <v>42775</v>
       </c>
+      <c r="B409" s="9"/>
+      <c r="C409" s="9"/>
+      <c r="D409" s="9"/>
+      <c r="E409" s="9"/>
+      <c r="F409" s="9"/>
+      <c r="G409" s="9"/>
+      <c r="H409" s="9"/>
+      <c r="I409" s="9"/>
+      <c r="J409" s="9"/>
+      <c r="K409" s="9"/>
+      <c r="L409" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>